--- a/data/2025-10-29.xlsx
+++ b/data/2025-10-29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haaneesh\Desktop\Agent core\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88D95C20-0C48-4A51-92FA-82D7C4682E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB950B-E2F2-4653-B2DB-D2C45EE9FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="3285" windowWidth="21600" windowHeight="11175" xr2:uid="{FA2363DC-2CDF-4D04-BE22-F97AC83FE815}"/>
+    <workbookView xWindow="30240" yWindow="6255" windowWidth="21600" windowHeight="11175" xr2:uid="{FA2363DC-2CDF-4D04-BE22-F97AC83FE815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>student_id</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>2025-10-18T15:16:39.395396</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>U08JHB79NJJ</t>
   </si>
 </sst>
 </file>
@@ -133,11 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,13 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947425D3-D6F8-48CD-A5FF-55F9AE8EC189}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -538,6 +551,26 @@
       </c>
       <c r="F3">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45948</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
